--- a/data/Supplementary Material 3.xlsx
+++ b/data/Supplementary Material 3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">dependent_var</t>
   </si>
@@ -53,6 +53,21 @@
     <t xml:space="preserve">main_effect_p_adj</t>
   </si>
   <si>
+    <t xml:space="preserve">effect_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci_lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci_upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect_size_for_plotting</t>
+  </si>
+  <si>
     <t xml:space="preserve">Current.health.expenditure....of.GDP.</t>
   </si>
   <si>
@@ -65,12 +80,18 @@
     <t xml:space="preserve">simple</t>
   </si>
   <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Death.rate..crude..per.1.000.people.</t>
   </si>
   <si>
     <t xml:space="preserve">gaussian</t>
   </si>
   <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hospital.beds..per.1.000.people.</t>
   </si>
   <si>
@@ -111,6 +132,9 @@
   </si>
   <si>
     <t xml:space="preserve">nbinom2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRR</t>
   </si>
   <si>
     <t xml:space="preserve">Research.and.development.expenditure....of.GDP.</t>
@@ -491,19 +515,34 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>69</v>
@@ -532,19 +571,34 @@
       <c r="M2" t="n">
         <v>0.977436964087945</v>
       </c>
+      <c r="N2" t="n">
+        <v>0.999987664451351</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.999136414139482</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.00083964001663</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.0000123355486492116</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>75</v>
@@ -573,19 +627,34 @@
       <c r="M3" t="n">
         <v>0.626259850591489</v>
       </c>
+      <c r="N3" t="n">
+        <v>-0.0017861531232811</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.00809521828287318</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.00452291203631098</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.0017861531232811</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>68</v>
@@ -614,19 +683,34 @@
       <c r="M4" t="n">
         <v>0.0000000117597372015154</v>
       </c>
+      <c r="N4" t="n">
+        <v>-0.0141370682902708</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.0180936028629444</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.0101805337175972</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.0141370682902708</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v>75</v>
@@ -655,19 +739,34 @@
       <c r="M5" t="n">
         <v>0.165414425184945</v>
       </c>
+      <c r="N5" t="n">
+        <v>0.0103747831351027</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.00138398817569522</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0221335544459006</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0103747831351027</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
         <v>75</v>
@@ -696,19 +795,34 @@
       <c r="M6" t="n">
         <v>0.127127328747969</v>
       </c>
+      <c r="N6" t="n">
+        <v>0.0649197239967274</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.00830681853288331</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.121532629460571</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0649197239967274</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
         <v>75</v>
@@ -737,19 +851,34 @@
       <c r="M7" t="n">
         <v>0.127127328747969</v>
       </c>
+      <c r="N7" t="n">
+        <v>0.0363871019405857</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.00324583916208586</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0695283647190855</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0363871019405857</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
         <v>69</v>
@@ -778,19 +907,34 @@
       <c r="M8" t="n">
         <v>0.134099882893403</v>
       </c>
+      <c r="N8" t="n">
+        <v>0.858334725689981</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.022670264845207</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.73933971622517</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.858334725689981</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>75</v>
@@ -819,19 +963,34 @@
       <c r="M9" t="n">
         <v>0.28094413926517</v>
       </c>
+      <c r="N9" t="n">
+        <v>0.0874462453173206</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.0435598033799183</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.218452294014559</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0874462453173206</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
         <v>75</v>
@@ -860,19 +1019,34 @@
       <c r="M10" t="n">
         <v>0.79250638003412</v>
       </c>
+      <c r="N10" t="n">
+        <v>-0.014851412692442</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.127033831276105</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0973310058912205</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.014851412692442</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
         <v>69</v>
@@ -901,19 +1075,34 @@
       <c r="M11" t="n">
         <v>0.134099882893403</v>
       </c>
+      <c r="N11" t="n">
+        <v>0.858334725689981</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.022670264845207</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.73933971622517</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.858334725689981</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
         <v>62</v>
@@ -942,19 +1131,34 @@
       <c r="M12" t="n">
         <v>0.163437403239282</v>
       </c>
+      <c r="N12" t="n">
+        <v>0.997729165136341</v>
+      </c>
+      <c r="O12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.994583837028644</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.00088444020732</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.00227083486365942</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
         <v>62</v>
@@ -983,19 +1187,34 @@
       <c r="M13" t="n">
         <v>0.487529555679133</v>
       </c>
+      <c r="N13" t="n">
+        <v>0.998360256120945</v>
+      </c>
+      <c r="O13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.994500992842594</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.00223449566695</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.00163974387905497</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
         <v>78</v>
@@ -1024,19 +1243,34 @@
       <c r="M14" t="n">
         <v>0.28094413926517</v>
       </c>
+      <c r="N14" t="n">
+        <v>6423908.52220609</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-3083444.69934574</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>15931261.7437579</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6423908.52220609</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
         <v>78</v>
@@ -1065,19 +1299,34 @@
       <c r="M15" t="n">
         <v>0.359091566879361</v>
       </c>
+      <c r="N15" t="n">
+        <v>7181931.49896579</v>
+      </c>
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-5679925.0396275</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>20043788.0375591</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7181931.49896579</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E16" t="n">
         <v>71</v>
@@ -1106,19 +1355,34 @@
       <c r="M16" t="n">
         <v>0.144404717526755</v>
       </c>
+      <c r="N16" t="n">
+        <v>0.534795381854538</v>
+      </c>
+      <c r="O16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.230776364764813</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.23932145626964</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.465204618145462</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
         <v>74</v>
@@ -1147,19 +1411,34 @@
       <c r="M17" t="n">
         <v>0.133835916533623</v>
       </c>
+      <c r="N17" t="n">
+        <v>581860.58694433</v>
+      </c>
+      <c r="O17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0169031092697272</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>20029554162887.1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>581859.58694433</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
         <v>74</v>
@@ -1187,6 +1466,21 @@
       </c>
       <c r="M18" t="n">
         <v>0.160187518977041</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.999865392486336</v>
+      </c>
+      <c r="O18" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.99967757162987</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.00005324863085</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.000134607513664342</v>
       </c>
     </row>
   </sheetData>
